--- a/Covid-19 Resource Planning Haryana Data Input Template v2.0.xlsx
+++ b/Covid-19 Resource Planning Haryana Data Input Template v2.0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Suneet.Roy\Desktop\COVID-EY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67F6A242-2C82-4164-A8D7-41457222B201}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DBB6434-C43A-4B70-933A-EC749FE7578C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3696" yWindow="0" windowWidth="17304" windowHeight="12360" activeTab="1" xr2:uid="{CBC7EA8E-4C05-4DA6-9475-00AFA9545C39}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{CBC7EA8E-4C05-4DA6-9475-00AFA9545C39}"/>
   </bookViews>
   <sheets>
     <sheet name="Usage Guide" sheetId="3" r:id="rId1"/>
@@ -53,9 +53,6 @@
   </si>
   <si>
     <t>Hisar</t>
-  </si>
-  <si>
-    <t>Currently_hospitalized_COVID_19_Patients</t>
   </si>
   <si>
     <t>Percentage_Social_Distancing</t>
@@ -122,9 +119,6 @@
   </si>
   <si>
     <t>Number</t>
-  </si>
-  <si>
-    <t>Number of patients currently hospitalized with COVID-19 in the administrative unit</t>
   </si>
   <si>
     <t>Percentage reduction in social contact in the administrative unit</t>
@@ -224,6 +218,12 @@
   </si>
   <si>
     <t>Yamunanagar</t>
+  </si>
+  <si>
+    <t>Currently_infected_COVID_19_Patients</t>
+  </si>
+  <si>
+    <t>Number of patients currently infected with COVID-19 in the administrative unit</t>
   </si>
 </sst>
 </file>
@@ -663,7 +663,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" w="9525">
+              <a14:hiddenLine xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -6701,8 +6701,8 @@
   </sheetPr>
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6733,12 +6733,12 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -6749,22 +6749,22 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -6772,16 +6772,16 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B16" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="D16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -6790,13 +6790,13 @@
         <v>0</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E17" s="19" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -6805,10 +6805,10 @@
         <v>1</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E18" s="20">
         <v>100000</v>
@@ -6817,13 +6817,13 @@
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="5"/>
       <c r="B19" s="12" t="s">
-        <v>7</v>
+        <v>62</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E19" s="21">
         <v>50</v>
@@ -6832,13 +6832,13 @@
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
       <c r="B20" s="12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E20" s="21">
         <v>10</v>
@@ -6847,13 +6847,13 @@
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="5"/>
       <c r="B21" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="14" t="s">
-        <v>41</v>
-      </c>
       <c r="D21" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E21" s="21">
         <v>2</v>
@@ -6865,10 +6865,10 @@
         <v>2</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E22" s="21">
         <v>4</v>
@@ -6876,13 +6876,13 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E23" s="22">
         <v>0.3</v>
@@ -6893,10 +6893,10 @@
         <v>3</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E24" s="21">
         <v>14</v>
@@ -6907,10 +6907,10 @@
         <v>4</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E25" s="22">
         <v>0.02</v>
@@ -6918,13 +6918,13 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B26" s="12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E26" s="22">
         <v>0.03</v>
@@ -6932,13 +6932,13 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B27" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E27" s="22">
         <v>0.03</v>
@@ -6946,13 +6946,13 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B28" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E28" s="22">
         <v>0.7</v>
@@ -6960,13 +6960,13 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B29" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E29" s="22">
         <v>0.3</v>
@@ -6977,10 +6977,10 @@
         <v>5</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E30" s="23">
         <v>100</v>
@@ -7003,8 +7003,8 @@
   </sheetPr>
   <dimension ref="A1:N23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7033,19 +7033,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="28" t="s">
-        <v>7</v>
+        <v>62</v>
       </c>
       <c r="D1" s="28" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E1" s="28" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F1" s="28" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H1" s="28" t="s">
         <v>3</v>
@@ -7054,16 +7054,16 @@
         <v>4</v>
       </c>
       <c r="J1" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="28" t="s">
+      <c r="L1" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="28" t="s">
+      <c r="M1" s="28" t="s">
         <v>11</v>
-      </c>
-      <c r="M1" s="28" t="s">
-        <v>12</v>
       </c>
       <c r="N1" s="28" t="s">
         <v>5</v>
@@ -7071,7 +7071,7 @@
     </row>
     <row r="2" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="24" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B2" s="29"/>
       <c r="C2" s="26"/>
@@ -7089,7 +7089,7 @@
     </row>
     <row r="3" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="24" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B3" s="29"/>
       <c r="C3" s="26"/>
@@ -7107,7 +7107,7 @@
     </row>
     <row r="4" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="24" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B4" s="29"/>
       <c r="C4" s="26"/>
@@ -7125,7 +7125,7 @@
     </row>
     <row r="5" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="24" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B5" s="29"/>
       <c r="C5" s="26"/>
@@ -7143,7 +7143,7 @@
     </row>
     <row r="6" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="24" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B6" s="29"/>
       <c r="C6" s="26"/>
@@ -7161,7 +7161,7 @@
     </row>
     <row r="7" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="24" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B7" s="29"/>
       <c r="C7" s="26"/>
@@ -7197,7 +7197,7 @@
     </row>
     <row r="9" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="24" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B9" s="29"/>
       <c r="C9" s="26"/>
@@ -7215,7 +7215,7 @@
     </row>
     <row r="10" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="24" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="29"/>
       <c r="C10" s="26"/>
@@ -7233,7 +7233,7 @@
     </row>
     <row r="11" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="24" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B11" s="29"/>
       <c r="C11" s="26"/>
@@ -7251,7 +7251,7 @@
     </row>
     <row r="12" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="24" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B12" s="29"/>
       <c r="C12" s="26"/>
@@ -7269,7 +7269,7 @@
     </row>
     <row r="13" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="24" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B13" s="29"/>
       <c r="C13" s="26"/>
@@ -7287,7 +7287,7 @@
     </row>
     <row r="14" spans="1:14" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="25" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B14" s="29"/>
       <c r="C14" s="26"/>
@@ -7305,7 +7305,7 @@
     </row>
     <row r="15" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="24" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B15" s="29"/>
       <c r="C15" s="26"/>
@@ -7323,7 +7323,7 @@
     </row>
     <row r="16" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="24" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B16" s="29"/>
       <c r="C16" s="26"/>
@@ -7341,7 +7341,7 @@
     </row>
     <row r="17" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="24" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B17" s="29"/>
       <c r="C17" s="26"/>
@@ -7359,7 +7359,7 @@
     </row>
     <row r="18" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B18" s="29"/>
       <c r="C18" s="26"/>
@@ -7377,7 +7377,7 @@
     </row>
     <row r="19" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="24" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B19" s="29"/>
       <c r="C19" s="26"/>
@@ -7395,7 +7395,7 @@
     </row>
     <row r="20" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="24" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B20" s="29"/>
       <c r="C20" s="26"/>
@@ -7413,7 +7413,7 @@
     </row>
     <row r="21" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="24" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B21" s="29"/>
       <c r="C21" s="26"/>
@@ -7431,7 +7431,7 @@
     </row>
     <row r="22" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="24" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B22" s="29"/>
       <c r="C22" s="26"/>
@@ -7449,7 +7449,7 @@
     </row>
     <row r="23" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="24" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B23" s="29"/>
       <c r="C23" s="26"/>
@@ -7472,21 +7472,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F869FB7CDC4CB94298D700C417F43B14" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5ddc1ed8db2cb07ec0345f40e9965cba">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="b33d107c-a448-497d-b606-00e85b1f002a" xmlns:ns4="78603c86-20b2-473c-8048-4163dd4c73c8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="185c07f72270aa66c93c84fd1258fc1d" ns3:_="" ns4:_="">
     <xsd:import namespace="b33d107c-a448-497d-b606-00e85b1f002a"/>
@@ -7709,10 +7694,36 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{77744988-55CF-42DB-AA3F-F428D09E4811}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40EBDB4E-4287-4E57-BFC9-B7BCCD9C2EA9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="b33d107c-a448-497d-b606-00e85b1f002a"/>
+    <ds:schemaRef ds:uri="78603c86-20b2-473c-8048-4163dd4c73c8"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -7735,20 +7746,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40EBDB4E-4287-4E57-BFC9-B7BCCD9C2EA9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{77744988-55CF-42DB-AA3F-F428D09E4811}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="b33d107c-a448-497d-b606-00e85b1f002a"/>
-    <ds:schemaRef ds:uri="78603c86-20b2-473c-8048-4163dd4c73c8"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>